--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_10_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_10_1_replicas_SMOTE.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="183">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>KNN</t>
   </si>
@@ -41,9 +44,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -74,466 +74,496 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.913+/-0.005</t>
-  </si>
-  <si>
-    <t>0.699+/-0.0</t>
-  </si>
-  <si>
-    <t>0.612</t>
-  </si>
-  <si>
-    <t>0.944+/-0.066</t>
-  </si>
-  <si>
-    <t>0.68+/-0.021</t>
-  </si>
-  <si>
-    <t>0.494</t>
-  </si>
-  <si>
-    <t>0.89+/-0.087</t>
-  </si>
-  <si>
-    <t>0.76+/-0.094</t>
-  </si>
-  <si>
-    <t>0.737</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.578+/-0.002</t>
-  </si>
-  <si>
-    <t>0.577+/-0.0</t>
-  </si>
-  <si>
-    <t>0.522</t>
-  </si>
-  <si>
-    <t>0.554+/-0.002</t>
-  </si>
-  <si>
-    <t>0.553+/-0.006</t>
-  </si>
-  <si>
-    <t>0.429</t>
-  </si>
-  <si>
-    <t>0.799+/-0.005</t>
-  </si>
-  <si>
-    <t>0.796+/-0.019</t>
-  </si>
-  <si>
-    <t>0.776</t>
-  </si>
-  <si>
-    <t>0.264+/-0.07</t>
-  </si>
-  <si>
-    <t>0.551+/-0.001</t>
+    <t>0.5+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.913+/-0.006</t>
+  </si>
+  <si>
+    <t>0.703+/-0.0</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>0.93+/-0.067</t>
+  </si>
+  <si>
+    <t>0.679+/-0.024</t>
+  </si>
+  <si>
+    <t>0.493</t>
+  </si>
+  <si>
+    <t>0.905+/-0.09</t>
+  </si>
+  <si>
+    <t>0.783+/-0.094</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.002+/-0.0</t>
+  </si>
+  <si>
+    <t>0.58+/-0.001</t>
+  </si>
+  <si>
+    <t>0.579+/-0.0</t>
+  </si>
+  <si>
+    <t>0.523</t>
+  </si>
+  <si>
+    <t>0.557+/-0.001</t>
+  </si>
+  <si>
+    <t>0.556+/-0.008</t>
+  </si>
+  <si>
+    <t>0.428</t>
+  </si>
+  <si>
+    <t>0.791+/-0.005</t>
+  </si>
+  <si>
+    <t>0.789+/-0.025</t>
+  </si>
+  <si>
+    <t>0.758</t>
+  </si>
+  <si>
+    <t>0.209+/-0.033</t>
+  </si>
+  <si>
+    <t>0.552+/-0.001</t>
+  </si>
+  <si>
+    <t>0.552+/-0.0</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.533+/-0.001</t>
+  </si>
+  <si>
+    <t>0.532+/-0.007</t>
+  </si>
+  <si>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>0.856+/-0.002</t>
+  </si>
+  <si>
+    <t>0.856+/-0.017</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.548+/-0.001</t>
+  </si>
+  <si>
+    <t>0.547+/-0.0</t>
+  </si>
+  <si>
+    <t>0.514</t>
+  </si>
+  <si>
+    <t>0.539+/-0.001</t>
+  </si>
+  <si>
+    <t>0.539+/-0.008</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>0.657+/-0.002</t>
+  </si>
+  <si>
+    <t>0.656+/-0.015</t>
+  </si>
+  <si>
+    <t>0.634</t>
+  </si>
+  <si>
+    <t>0.008+/-0.0</t>
+  </si>
+  <si>
+    <t>0.706+/-0.01</t>
+  </si>
+  <si>
+    <t>0.668+/-0.0</t>
+  </si>
+  <si>
+    <t>0.626</t>
+  </si>
+  <si>
+    <t>0.667+/-0.016</t>
+  </si>
+  <si>
+    <t>0.637+/-0.021</t>
+  </si>
+  <si>
+    <t>0.507</t>
+  </si>
+  <si>
+    <t>0.827+/-0.025</t>
+  </si>
+  <si>
+    <t>0.786+/-0.039</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>3.746+/-0.582</t>
+  </si>
+  <si>
+    <t>0.697+/-0.003</t>
+  </si>
+  <si>
+    <t>0.641+/-0.0</t>
+  </si>
+  <si>
+    <t>0.594</t>
+  </si>
+  <si>
+    <t>0.666+/-0.014</t>
+  </si>
+  <si>
+    <t>0.619+/-0.015</t>
+  </si>
+  <si>
+    <t>0.478</t>
+  </si>
+  <si>
+    <t>0.793+/-0.042</t>
+  </si>
+  <si>
+    <t>0.739+/-0.049</t>
+  </si>
+  <si>
+    <t>0.718</t>
+  </si>
+  <si>
+    <t>0.142+/-0.012</t>
+  </si>
+  <si>
+    <t>0.685+/-0.008</t>
+  </si>
+  <si>
+    <t>0.632+/-0.0</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>0.647+/-0.015</t>
+  </si>
+  <si>
+    <t>0.604+/-0.011</t>
+  </si>
+  <si>
+    <t>0.476</t>
+  </si>
+  <si>
+    <t>0.818+/-0.043</t>
+  </si>
+  <si>
+    <t>0.767+/-0.05</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>0.195+/-0.006</t>
+  </si>
+  <si>
+    <t>0.659+/-0.002</t>
+  </si>
+  <si>
+    <t>0.637+/-0.0</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.612+/-0.002</t>
+  </si>
+  <si>
+    <t>0.596+/-0.008</t>
+  </si>
+  <si>
+    <t>0.872+/-0.005</t>
+  </si>
+  <si>
+    <t>0.848+/-0.017</t>
+  </si>
+  <si>
+    <t>0.814</t>
+  </si>
+  <si>
+    <t>52.734+/-3.419</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.2+/-0.245</t>
+  </si>
+  <si>
+    <t>0.4+/-0.49</t>
+  </si>
+  <si>
+    <t>0.918+/-0.002</t>
+  </si>
+  <si>
+    <t>0.749+/-0.0</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>0.943+/-0.07</t>
+  </si>
+  <si>
+    <t>0.705+/-0.03</t>
+  </si>
+  <si>
+    <t>0.313</t>
+  </si>
+  <si>
+    <t>0.902+/-0.077</t>
+  </si>
+  <si>
+    <t>0.869+/-0.08</t>
+  </si>
+  <si>
+    <t>0.535</t>
+  </si>
+  <si>
+    <t>0.558+/-0.002</t>
   </si>
   <si>
     <t>0.55+/-0.0</t>
   </si>
   <si>
-    <t>0.472</t>
-  </si>
-  <si>
-    <t>0.532+/-0.001</t>
-  </si>
-  <si>
-    <t>0.531+/-0.007</t>
-  </si>
-  <si>
-    <t>0.406</t>
-  </si>
-  <si>
-    <t>0.855+/-0.003</t>
-  </si>
-  <si>
-    <t>0.852+/-0.019</t>
-  </si>
-  <si>
-    <t>0.831</t>
-  </si>
-  <si>
-    <t>0.007+/-0.0</t>
-  </si>
-  <si>
-    <t>0.546+/-0.001</t>
-  </si>
-  <si>
-    <t>0.545+/-0.0</t>
-  </si>
-  <si>
-    <t>0.516</t>
-  </si>
-  <si>
-    <t>0.538+/-0.001</t>
-  </si>
-  <si>
-    <t>0.537+/-0.012</t>
-  </si>
-  <si>
-    <t>0.412</t>
-  </si>
-  <si>
-    <t>0.656+/-0.003</t>
-  </si>
-  <si>
-    <t>0.656+/-0.023</t>
-  </si>
-  <si>
-    <t>0.637</t>
+    <t>0.528</t>
+  </si>
+  <si>
+    <t>0.563+/-0.013</t>
+  </si>
+  <si>
+    <t>0.554+/-0.016</t>
+  </si>
+  <si>
+    <t>0.228</t>
+  </si>
+  <si>
+    <t>0.538+/-0.072</t>
+  </si>
+  <si>
+    <t>0.531+/-0.076</t>
+  </si>
+  <si>
+    <t>0.356+/-0.036</t>
+  </si>
+  <si>
+    <t>0.527+/-0.004</t>
+  </si>
+  <si>
+    <t>0.523+/-0.0</t>
+  </si>
+  <si>
+    <t>0.359</t>
+  </si>
+  <si>
+    <t>0.517+/-0.003</t>
+  </si>
+  <si>
+    <t>0.515+/-0.006</t>
+  </si>
+  <si>
+    <t>0.202</t>
+  </si>
+  <si>
+    <t>0.798+/-0.018</t>
+  </si>
+  <si>
+    <t>0.793+/-0.023</t>
+  </si>
+  <si>
+    <t>0.755</t>
   </si>
   <si>
     <t>0.009+/-0.001</t>
   </si>
   <si>
-    <t>0.717+/-0.008</t>
-  </si>
-  <si>
-    <t>0.678+/-0.0</t>
-  </si>
-  <si>
-    <t>0.648</t>
-  </si>
-  <si>
-    <t>0.685+/-0.015</t>
-  </si>
-  <si>
-    <t>0.652+/-0.016</t>
-  </si>
-  <si>
-    <t>0.528</t>
-  </si>
-  <si>
-    <t>0.806+/-0.038</t>
-  </si>
-  <si>
-    <t>0.768+/-0.041</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>4.987+/-1.189</t>
-  </si>
-  <si>
-    <t>0.693+/-0.013</t>
-  </si>
-  <si>
-    <t>0.642+/-0.0</t>
-  </si>
-  <si>
-    <t>0.594</t>
-  </si>
-  <si>
-    <t>0.662+/-0.019</t>
-  </si>
-  <si>
-    <t>0.619+/-0.016</t>
-  </si>
-  <si>
-    <t>0.478</t>
-  </si>
-  <si>
-    <t>0.793+/-0.052</t>
-  </si>
-  <si>
-    <t>0.745+/-0.055</t>
-  </si>
-  <si>
-    <t>0.139+/-0.004</t>
-  </si>
-  <si>
-    <t>0.68+/-0.017</t>
-  </si>
-  <si>
-    <t>0.634+/-0.0</t>
-  </si>
-  <si>
-    <t>0.575</t>
-  </si>
-  <si>
-    <t>0.648+/-0.023</t>
-  </si>
-  <si>
-    <t>0.61+/-0.019</t>
-  </si>
-  <si>
-    <t>0.465</t>
-  </si>
-  <si>
-    <t>0.794+/-0.06</t>
-  </si>
-  <si>
-    <t>0.752+/-0.062</t>
-  </si>
-  <si>
-    <t>0.768</t>
-  </si>
-  <si>
-    <t>0.196+/-0.005</t>
-  </si>
-  <si>
-    <t>0.656+/-0.002</t>
-  </si>
-  <si>
-    <t>0.638+/-0.0</t>
-  </si>
-  <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>0.609+/-0.002</t>
-  </si>
-  <si>
-    <t>0.596+/-0.008</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>0.871+/-0.003</t>
-  </si>
-  <si>
-    <t>0.852+/-0.012</t>
-  </si>
-  <si>
-    <t>0.829</t>
-  </si>
-  <si>
-    <t>92.161+/-14.346</t>
-  </si>
-  <si>
-    <t>0.915+/-0.001</t>
-  </si>
-  <si>
-    <t>0.746+/-0.0</t>
-  </si>
-  <si>
-    <t>0.668</t>
-  </si>
-  <si>
-    <t>0.914+/-0.07</t>
-  </si>
-  <si>
-    <t>0.693+/-0.028</t>
-  </si>
-  <si>
-    <t>0.305</t>
-  </si>
-  <si>
-    <t>0.93+/-0.081</t>
-  </si>
-  <si>
-    <t>0.895+/-0.084</t>
-  </si>
-  <si>
-    <t>0.527</t>
-  </si>
-  <si>
-    <t>0.561+/-0.002</t>
-  </si>
-  <si>
-    <t>0.558+/-0.0</t>
-  </si>
-  <si>
-    <t>0.531</t>
-  </si>
-  <si>
-    <t>0.556+/-0.002</t>
-  </si>
-  <si>
-    <t>0.554+/-0.012</t>
-  </si>
-  <si>
-    <t>0.234</t>
-  </si>
-  <si>
-    <t>0.598+/-0.005</t>
-  </si>
-  <si>
-    <t>0.598+/-0.021</t>
-  </si>
-  <si>
-    <t>0.598</t>
-  </si>
-  <si>
-    <t>0.344+/-0.017</t>
-  </si>
-  <si>
-    <t>0.536+/-0.006</t>
-  </si>
-  <si>
     <t>0.532+/-0.0</t>
   </si>
   <si>
-    <t>0.416</t>
-  </si>
-  <si>
-    <t>0.526+/-0.005</t>
-  </si>
-  <si>
-    <t>0.523+/-0.011</t>
-  </si>
-  <si>
-    <t>0.213</t>
-  </si>
-  <si>
-    <t>0.734+/-0.023</t>
-  </si>
-  <si>
-    <t>0.731+/-0.02</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.533+/-0.001</t>
-  </si>
-  <si>
     <t>0.584</t>
   </si>
   <si>
-    <t>0.539+/-0.001</t>
-  </si>
-  <si>
-    <t>0.539+/-0.013</t>
-  </si>
-  <si>
-    <t>0.238</t>
-  </si>
-  <si>
-    <t>0.449+/-0.006</t>
-  </si>
-  <si>
-    <t>0.448+/-0.012</t>
-  </si>
-  <si>
-    <t>0.498</t>
-  </si>
-  <si>
-    <t>0.687+/-0.0</t>
-  </si>
-  <si>
-    <t>0.525</t>
-  </si>
-  <si>
-    <t>0.716+/-0.046</t>
-  </si>
-  <si>
-    <t>0.684+/-0.042</t>
-  </si>
-  <si>
-    <t>0.252</t>
-  </si>
-  <si>
-    <t>0.742+/-0.099</t>
-  </si>
-  <si>
-    <t>0.714+/-0.1</t>
-  </si>
-  <si>
-    <t>0.705</t>
-  </si>
-  <si>
-    <t>5.717+/-0.588</t>
-  </si>
-  <si>
-    <t>0.679+/-0.006</t>
-  </si>
-  <si>
-    <t>0.65+/-0.0</t>
-  </si>
-  <si>
-    <t>0.507</t>
-  </si>
-  <si>
-    <t>0.655+/-0.032</t>
-  </si>
-  <si>
-    <t>0.628+/-0.028</t>
-  </si>
-  <si>
-    <t>0.242</t>
-  </si>
-  <si>
-    <t>0.776+/-0.094</t>
-  </si>
-  <si>
-    <t>0.75+/-0.099</t>
-  </si>
-  <si>
-    <t>0.695</t>
-  </si>
-  <si>
-    <t>0.15+/-0.013</t>
-  </si>
-  <si>
-    <t>0.666+/-0.012</t>
-  </si>
-  <si>
-    <t>0.64+/-0.0</t>
-  </si>
-  <si>
-    <t>0.487</t>
-  </si>
-  <si>
-    <t>0.634+/-0.028</t>
-  </si>
-  <si>
-    <t>0.612+/-0.023</t>
-  </si>
-  <si>
-    <t>0.803+/-0.075</t>
-  </si>
-  <si>
-    <t>0.776+/-0.081</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.205+/-0.01</t>
-  </si>
-  <si>
-    <t>0.673+/-0.002</t>
-  </si>
-  <si>
-    <t>0.654+/-0.0</t>
-  </si>
-  <si>
-    <t>0.583</t>
-  </si>
-  <si>
-    <t>0.656+/-0.017</t>
-  </si>
-  <si>
-    <t>0.639+/-0.022</t>
-  </si>
-  <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>0.731+/-0.05</t>
-  </si>
-  <si>
-    <t>0.715+/-0.048</t>
-  </si>
-  <si>
-    <t>0.618</t>
-  </si>
-  <si>
-    <t>136.777+/-16.676</t>
+    <t>0.538+/-0.011</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>0.458+/-0.001</t>
+  </si>
+  <si>
+    <t>0.458+/-0.013</t>
+  </si>
+  <si>
+    <t>0.505</t>
+  </si>
+  <si>
+    <t>0.01+/-0.0</t>
+  </si>
+  <si>
+    <t>0.716+/-0.005</t>
+  </si>
+  <si>
+    <t>0.683+/-0.0</t>
+  </si>
+  <si>
+    <t>0.707</t>
+  </si>
+  <si>
+    <t>0.763+/-0.018</t>
+  </si>
+  <si>
+    <t>0.721+/-0.021</t>
+  </si>
+  <si>
+    <t>0.326</t>
+  </si>
+  <si>
+    <t>0.628+/-0.031</t>
+  </si>
+  <si>
+    <t>0.6+/-0.032</t>
+  </si>
+  <si>
+    <t>0.444</t>
+  </si>
+  <si>
+    <t>6.985+/-1.764</t>
+  </si>
+  <si>
+    <t>0.695+/-0.007</t>
+  </si>
+  <si>
+    <t>0.661+/-0.0</t>
+  </si>
+  <si>
+    <t>0.672</t>
+  </si>
+  <si>
+    <t>0.73+/-0.021</t>
+  </si>
+  <si>
+    <t>0.688+/-0.018</t>
+  </si>
+  <si>
+    <t>0.297</t>
+  </si>
+  <si>
+    <t>0.62+/-0.026</t>
+  </si>
+  <si>
+    <t>0.589+/-0.033</t>
+  </si>
+  <si>
+    <t>0.475</t>
+  </si>
+  <si>
+    <t>0.169+/-0.008</t>
+  </si>
+  <si>
+    <t>0.687+/-0.004</t>
+  </si>
+  <si>
+    <t>0.656+/-0.0</t>
+  </si>
+  <si>
+    <t>0.647</t>
+  </si>
+  <si>
+    <t>0.716+/-0.019</t>
+  </si>
+  <si>
+    <t>0.679+/-0.019</t>
+  </si>
+  <si>
+    <t>0.286</t>
+  </si>
+  <si>
+    <t>0.622+/-0.031</t>
+  </si>
+  <si>
+    <t>0.593+/-0.04</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.248+/-0.006</t>
+  </si>
+  <si>
+    <t>0.674+/-0.002</t>
+  </si>
+  <si>
+    <t>0.659+/-0.0</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.702+/-0.002</t>
+  </si>
+  <si>
+    <t>0.685+/-0.019</t>
+  </si>
+  <si>
+    <t>0.319</t>
+  </si>
+  <si>
+    <t>0.606+/-0.005</t>
+  </si>
+  <si>
+    <t>0.59+/-0.017</t>
+  </si>
+  <si>
+    <t>0.496</t>
+  </si>
+  <si>
+    <t>88.823+/-4.957</t>
   </si>
 </sst>
 </file>
@@ -934,28 +964,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>85</v>
+      </c>
+      <c r="J2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -963,31 +993,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>86</v>
+      </c>
+      <c r="J3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -995,31 +1025,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4">
-        <v>0.6190476190476191</v>
+        <v>87</v>
+      </c>
+      <c r="J4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1027,31 +1057,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="J5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1059,31 +1089,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1091,31 +1121,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1123,31 +1153,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8">
-        <v>0.5</v>
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1155,31 +1185,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9">
-        <v>0.5</v>
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1187,31 +1217,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10">
-        <v>0.6190476190476191</v>
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1219,31 +1249,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1293,31 +1323,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
         <v>163</v>
       </c>
-      <c r="J2">
-        <v>0.5</v>
+      <c r="J2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1325,31 +1355,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
         <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I3" t="s">
         <v>164</v>
       </c>
-      <c r="J3">
-        <v>0.5</v>
+      <c r="J3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1357,31 +1387,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
         <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
         <v>136</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I4" t="s">
         <v>165</v>
       </c>
-      <c r="J4">
-        <v>0.8015873015873016</v>
+      <c r="J4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1389,31 +1419,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
         <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I5" t="s">
         <v>166</v>
       </c>
-      <c r="J5">
-        <v>1</v>
+      <c r="J5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1421,31 +1451,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
         <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I6" t="s">
         <v>167</v>
       </c>
-      <c r="J6">
-        <v>1</v>
+      <c r="J6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1453,31 +1483,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="I7" t="s">
         <v>168</v>
       </c>
-      <c r="J7">
-        <v>1</v>
+      <c r="J7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1485,22 +1515,22 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
         <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H8" t="s">
         <v>159</v>
@@ -1508,8 +1538,8 @@
       <c r="I8" t="s">
         <v>169</v>
       </c>
-      <c r="J8">
-        <v>0.5</v>
+      <c r="J8" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1517,22 +1547,22 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
         <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H9" t="s">
         <v>160</v>
@@ -1540,8 +1570,8 @@
       <c r="I9" t="s">
         <v>170</v>
       </c>
-      <c r="J9">
-        <v>0.5</v>
+      <c r="J9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1549,22 +1579,22 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H10" t="s">
         <v>161</v>
@@ -1572,8 +1602,8 @@
       <c r="I10" t="s">
         <v>171</v>
       </c>
-      <c r="J10">
-        <v>0.8015873015873016</v>
+      <c r="J10" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1581,22 +1611,22 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H11" t="s">
         <v>162</v>
@@ -1604,8 +1634,8 @@
       <c r="I11" t="s">
         <v>172</v>
       </c>
-      <c r="J11">
-        <v>0</v>
+      <c r="J11" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
